--- a/2401-pcb/pinMapping_stm32g070cb.xlsx
+++ b/2401-pcb/pinMapping_stm32g070cb.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="241">
   <si>
     <t xml:space="preserve">module</t>
   </si>
@@ -272,454 +272,460 @@
     <t xml:space="preserve">LED RED</t>
   </si>
   <si>
+    <t xml:space="preserve">PB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED GREEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB9</t>
   </si>
   <si>
-    <t xml:space="preserve">LED GREEN</t>
+    <t xml:space="preserve">Distance sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accelerometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accel_int1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accel_int2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_SCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART4_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMP_IN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKUP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_SCK/I2S1_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_RTS _DE_CK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART4_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM15_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SMBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVENTOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP1_MOSI/I2S1_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM15_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKUP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM15_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_NSS/I2S1_WS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_MOSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM14_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMP_IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC_TS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC_OUT1/RTC_OUT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKUP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MISO/I2S1_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM16_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MOSI/I2S1_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM17_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI2_NSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM15_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM17_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C1_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MOSI/I2S1_MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_BKIN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART1_RTS_DE_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_ETR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2S_CKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C2_SDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR_OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART4_RTS_DE_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_RTS_DE_CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH2N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM3_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1_CH3N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPI1_MISO/I2S1_MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM16_BKIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKUP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM16_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM17_CH1N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART4_CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTC_REFIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC_IN18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WKUP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM4_CH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC13 (low current)</t>
   </si>
   <si>
     <t xml:space="preserve">PC14</t>
   </si>
   <si>
-    <t xml:space="preserve">Distance sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance_int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accelerometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accel_int1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">accel_int2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pin nr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI2_SCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART2_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART4_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMP_IN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKUP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_SCK/I2S1_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART2_RTS _DE_CK </t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART4_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM15_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1_SMBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVENTOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP1_MOSI/I2S1_SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART2_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM15_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKUP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI2_MISO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART2_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM15_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_NSS/I2S1_WS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI2_MOSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM14_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMP_IN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTC_TS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTC_OUT1/RTC_OUT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKUP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MISO/I2S1_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM16_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MOSI/I2S1_SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM17_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI2_NSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM15_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM17_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C1_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MOSI/I2S1_MCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_BKIN2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2_SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART1_RTS_DE_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_ETR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2S_CKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2C2_SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART4_RTS_DE_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3_RTS_DE_CK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH2N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3_RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM3_CH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1_CH3N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPI1_MISO/I2S1_MCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM16_BKIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKUP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM16_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM17_CH1N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART4_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTC_REFIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC_IN18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WKUP5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM4_CH4</t>
+    <t xml:space="preserve">PC14 (low current)</t>
   </si>
   <si>
     <t xml:space="preserve">PC15</t>
@@ -729,6 +735,9 @@
   </si>
   <si>
     <t xml:space="preserve">OSC_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC15 (low current)</t>
   </si>
   <si>
     <t xml:space="preserve">TIM3_ETR</t>
@@ -900,7 +909,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -950,10 +959,6 @@
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1018,7 +1023,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="78">
     <dxf>
       <font>
         <color rgb="FF948A54"/>
@@ -1057,7 +1062,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1077,7 +1082,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1115,7 +1120,7 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
@@ -1160,7 +1165,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1180,7 +1185,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1252,7 +1257,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1272,7 +1277,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1310,7 +1315,7 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
@@ -1355,7 +1360,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1375,7 +1380,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1417,7 +1422,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1437,7 +1442,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,7 +1479,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1484,7 +1489,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1606,7 +1611,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1626,7 +1631,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1678,7 +1683,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1698,7 +1703,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1736,7 +1741,7 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill>
@@ -1773,207 +1778,18 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD9D9D9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF604A7B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCC1DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF953735"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B9B8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCD5B5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1F497D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1F497D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFCD5B5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1F497D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1F497D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA6A6A6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF948A54"/>
@@ -1983,8 +1799,8 @@
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF953735"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFDDD9C3"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -2034,7 +1850,7 @@
   <dimension ref="A1:AA238"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="19:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2288,7 +2104,7 @@
       <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="4"/>
       <c r="H4" s="12" t="s">
         <v>31</v>
       </c>
@@ -2356,10 +2172,10 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H4,pins!$B:$B,0),0), "nc")</f>
         <v>PA14</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="14"/>
+      <c r="AA4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
@@ -2371,7 +2187,7 @@
       <c r="D5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="4"/>
       <c r="H5" s="12" t="s">
         <v>36</v>
       </c>
@@ -2439,10 +2255,10 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H5,pins!$B:$B,0),0), "nc")</f>
         <v>PA10</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2456,8 +2272,8 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
       <c r="H6" s="12" t="s">
         <v>38</v>
       </c>
@@ -2525,7 +2341,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H6,pins!$B:$B,0),0), "nc")</f>
         <v>PA9</v>
       </c>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="AA6" s="3" t="s">
@@ -2539,7 +2355,7 @@
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -2609,7 +2425,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H7,pins!$B:$B,0),0), "nc")</f>
         <v>PA5</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="16" t="s">
         <v>45</v>
       </c>
       <c r="AA7" s="3" t="s">
@@ -2623,7 +2439,7 @@
       <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -2693,7 +2509,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H8,pins!$B:$B,0),0), "nc")</f>
         <v>PA6</v>
       </c>
-      <c r="Z8" s="17" t="s">
+      <c r="Z8" s="16" t="s">
         <v>49</v>
       </c>
       <c r="AA8" s="3" t="s">
@@ -2777,7 +2593,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H9,pins!$B:$B,0),0), "nc")</f>
         <v>PA7</v>
       </c>
-      <c r="Z9" s="17"/>
+      <c r="Z9" s="16"/>
       <c r="AA9" s="3" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2675,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H10,pins!$B:$B,0),0), "nc")</f>
         <v>PA8</v>
       </c>
-      <c r="Z10" s="17"/>
+      <c r="Z10" s="16"/>
       <c r="AA10" s="3" t="s">
         <v>55</v>
       </c>
@@ -2941,7 +2757,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H11,pins!$B:$B,0),0), "nc")</f>
         <v>PB6</v>
       </c>
-      <c r="Z11" s="17"/>
+      <c r="Z11" s="16"/>
       <c r="AA11" s="3" t="s">
         <v>59</v>
       </c>
@@ -3023,7 +2839,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H12,pins!$B:$B,0),0), "nc")</f>
         <v>PB7</v>
       </c>
-      <c r="Z12" s="17"/>
+      <c r="Z12" s="16"/>
       <c r="AA12" s="3" t="s">
         <v>62</v>
       </c>
@@ -3055,7 +2871,7 @@
       </c>
       <c r="L13" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!D:D,MATCH($H13,pins!$B:$B,0),0), "nc")</f>
-        <v>USART2_RTS _DE_CK </v>
+        <v>USART2_RTS _DE_CK</v>
       </c>
       <c r="M13" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!E:E,MATCH($H13,pins!$B:$B,0),0), "nc")</f>
@@ -3105,7 +2921,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H13,pins!$B:$B,0),0), "nc")</f>
         <v>PA1</v>
       </c>
-      <c r="Z13" s="17"/>
+      <c r="Z13" s="16"/>
       <c r="AA13" s="3" t="s">
         <v>67</v>
       </c>
@@ -3187,7 +3003,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H14,pins!$B:$B,0),0), "nc")</f>
         <v>PA0</v>
       </c>
-      <c r="Z14" s="17"/>
+      <c r="Z14" s="16"/>
       <c r="AA14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3269,7 +3085,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H15,pins!$B:$B,0),0), "nc")</f>
         <v>PA4</v>
       </c>
-      <c r="Z15" s="17"/>
+      <c r="Z15" s="16"/>
       <c r="AA15" s="3" t="s">
         <v>65</v>
       </c>
@@ -3351,7 +3167,7 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H16,pins!$B:$B,0),0), "nc")</f>
         <v>PA2</v>
       </c>
-      <c r="Z16" s="18"/>
+      <c r="Z16" s="17"/>
       <c r="AA16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3435,8 +3251,8 @@
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H17,pins!$B:$B,0),0), "nc")</f>
         <v>PA3</v>
       </c>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="20" t="s">
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="19" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3533,7 +3349,7 @@
       </c>
       <c r="I19" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D19),$I$2,INDEX(K19:X19,0,MATCH($D19 &amp; "*",K19:X19,0))),     $I$2    ),    $I$2:$I18,0   ),   "unique")="unique",  INDEX(K19:X19,0,MATCH($D19 &amp; "*",K19:X19,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E19),$I$2,INDEX(K19:X19,0,MATCH($E19 &amp; "*",K19:X19,0))),      $I$2     ),     $I$2:$I18,0    ),    "unique")="unique",   INDEX(K19:X19,0,MATCH($E19 &amp; "*",K19:X19,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F19),$I$2,INDEX(K19:X19,0,MATCH($F19 &amp; "*",K19:X19,0))),       $I$2      ),      $I$2:$I18,0     ),     "unique")="unique",    INDEX(K19:X19,0,MATCH($F19 &amp; "*",K19:X19,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G19),$I$2,INDEX(K19:X19,0,MATCH($G19 &amp; "*",K19:X19,0))),        $I$2       ),       $I$2:$I18,0      ),      "unique")="unique",     INDEX(K19:X19,0,MATCH($G19 &amp; "*",K19:X19,0)),     "nc"    )   )  ) )</f>
-        <v>PB9</v>
+        <v>PB5</v>
       </c>
       <c r="J19" s="6" t="str">
         <f aca="false">INDEX($K$1:$X$1,1,MATCH(I19,K19:X19,0))</f>
@@ -3541,15 +3357,15 @@
       </c>
       <c r="K19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!C:C,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>IR_OUT</v>
+        <v>SPI1_MOSI/I2S1_SD</v>
       </c>
       <c r="L19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!D:D,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>TIM3_CH2</v>
       </c>
       <c r="M19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!E:E,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>TIM17_CH1</v>
+        <v>TIM16_BKIN</v>
       </c>
       <c r="N19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!F:F,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
@@ -3557,23 +3373,23 @@
       </c>
       <c r="O19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!G:G,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>USART3_RX</v>
+        <v>R</v>
       </c>
       <c r="P19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!H:H,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>SPI2_NSS</v>
+        <v>R</v>
       </c>
       <c r="Q19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!I:I,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>I2C1_SDA</v>
-      </c>
-      <c r="R19" s="6" t="str">
+        <v>I2C1_SMBA</v>
+      </c>
+      <c r="R19" s="6" t="n">
         <f aca="false">IFERROR(INDEX(pins!J:J,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>EVENTOUT</v>
-      </c>
-      <c r="S19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!K:K,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>0</v>
+        <v>WKUP6</v>
       </c>
       <c r="T19" s="6" t="n">
         <f aca="false">IFERROR(INDEX(pins!L:L,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
@@ -3593,7 +3409,7 @@
       </c>
       <c r="X19" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H19,pins!$B:$B,0),0), "nc")</f>
-        <v>PB9</v>
+        <v>PB5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,7 +3427,7 @@
       </c>
       <c r="I20" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D20),$I$2,INDEX(K20:X20,0,MATCH($D20 &amp; "*",K20:X20,0))),     $I$2    ),    $I$2:$I19,0   ),   "unique")="unique",  INDEX(K20:X20,0,MATCH($D20 &amp; "*",K20:X20,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E20),$I$2,INDEX(K20:X20,0,MATCH($E20 &amp; "*",K20:X20,0))),      $I$2     ),     $I$2:$I19,0    ),    "unique")="unique",   INDEX(K20:X20,0,MATCH($E20 &amp; "*",K20:X20,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F20),$I$2,INDEX(K20:X20,0,MATCH($F20 &amp; "*",K20:X20,0))),       $I$2      ),      $I$2:$I19,0     ),     "unique")="unique",    INDEX(K20:X20,0,MATCH($F20 &amp; "*",K20:X20,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G20),$I$2,INDEX(K20:X20,0,MATCH($G20 &amp; "*",K20:X20,0))),        $I$2       ),       $I$2:$I19,0      ),      "unique")="unique",     INDEX(K20:X20,0,MATCH($G20 &amp; "*",K20:X20,0)),     "nc"    )   )  ) )</f>
-        <v>PC14</v>
+        <v>PB9</v>
       </c>
       <c r="J20" s="6" t="str">
         <f aca="false">INDEX($K$1:$X$1,1,MATCH(I20,K20:X20,0))</f>
@@ -3619,7 +3435,7 @@
       </c>
       <c r="K20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!C:C,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>IR_OUT</v>
       </c>
       <c r="L20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!D:D,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
@@ -3627,7 +3443,7 @@
       </c>
       <c r="M20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!E:E,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>TIM1_BKIN2</v>
+        <v>TIM17_CH1</v>
       </c>
       <c r="N20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!F:F,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
@@ -3635,19 +3451,19 @@
       </c>
       <c r="O20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!G:G,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>USART3_RX</v>
       </c>
       <c r="P20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!H:H,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>SPI2_NSS</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!I:I,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>I2C1_SDA</v>
       </c>
       <c r="R20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!J:J,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>R</v>
+        <v>EVENTOUT</v>
       </c>
       <c r="S20" s="6" t="n">
         <f aca="false">IFERROR(INDEX(pins!K:K,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
@@ -3671,7 +3487,7 @@
       </c>
       <c r="X20" s="6" t="str">
         <f aca="false">IFERROR(INDEX(pins!P:P,MATCH($H20,pins!$B:$B,0),0), "nc")</f>
-        <v>PC14</v>
+        <v>PB9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,7 +4133,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="4"/>
       <c r="I30" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D30),$I$2,INDEX(K30:X30,0,MATCH($D30 &amp; "*",K30:X30,0))),     $I$2    ),    $I$2:$I29,0   ),   "unique")="unique",  INDEX(K30:X30,0,MATCH($D30 &amp; "*",K30:X30,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E30),$I$2,INDEX(K30:X30,0,MATCH($E30 &amp; "*",K30:X30,0))),      $I$2     ),     $I$2:$I29,0    ),    "unique")="unique",   INDEX(K30:X30,0,MATCH($E30 &amp; "*",K30:X30,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F30),$I$2,INDEX(K30:X30,0,MATCH($F30 &amp; "*",K30:X30,0))),       $I$2      ),      $I$2:$I29,0     ),     "unique")="unique",    INDEX(K30:X30,0,MATCH($F30 &amp; "*",K30:X30,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G30),$I$2,INDEX(K30:X30,0,MATCH($G30 &amp; "*",K30:X30,0))),        $I$2       ),       $I$2:$I29,0      ),      "unique")="unique",     INDEX(K30:X30,0,MATCH($G30 &amp; "*",K30:X30,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -4385,7 +4201,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="4"/>
       <c r="I31" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D31),$I$2,INDEX(K31:X31,0,MATCH($D31 &amp; "*",K31:X31,0))),     $I$2    ),    $I$2:$I30,0   ),   "unique")="unique",  INDEX(K31:X31,0,MATCH($D31 &amp; "*",K31:X31,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E31),$I$2,INDEX(K31:X31,0,MATCH($E31 &amp; "*",K31:X31,0))),      $I$2     ),     $I$2:$I30,0    ),    "unique")="unique",   INDEX(K31:X31,0,MATCH($E31 &amp; "*",K31:X31,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F31),$I$2,INDEX(K31:X31,0,MATCH($F31 &amp; "*",K31:X31,0))),       $I$2      ),      $I$2:$I30,0     ),     "unique")="unique",    INDEX(K31:X31,0,MATCH($F31 &amp; "*",K31:X31,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G31),$I$2,INDEX(K31:X31,0,MATCH($G31 &amp; "*",K31:X31,0))),        $I$2       ),       $I$2:$I30,0      ),      "unique")="unique",     INDEX(K31:X31,0,MATCH($G31 &amp; "*",K31:X31,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -4453,7 +4269,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="4"/>
       <c r="I32" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D32),$I$2,INDEX(K32:X32,0,MATCH($D32 &amp; "*",K32:X32,0))),     $I$2    ),    $I$2:$I31,0   ),   "unique")="unique",  INDEX(K32:X32,0,MATCH($D32 &amp; "*",K32:X32,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E32),$I$2,INDEX(K32:X32,0,MATCH($E32 &amp; "*",K32:X32,0))),      $I$2     ),     $I$2:$I31,0    ),    "unique")="unique",   INDEX(K32:X32,0,MATCH($E32 &amp; "*",K32:X32,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F32),$I$2,INDEX(K32:X32,0,MATCH($F32 &amp; "*",K32:X32,0))),       $I$2      ),      $I$2:$I31,0     ),     "unique")="unique",    INDEX(K32:X32,0,MATCH($F32 &amp; "*",K32:X32,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G32),$I$2,INDEX(K32:X32,0,MATCH($G32 &amp; "*",K32:X32,0))),        $I$2       ),       $I$2:$I31,0      ),      "unique")="unique",     INDEX(K32:X32,0,MATCH($G32 &amp; "*",K32:X32,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -4521,8 +4337,8 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D33),$I$2,INDEX(K33:X33,0,MATCH($D33 &amp; "*",K33:X33,0))),     $I$2    ),    $I$2:$I32,0   ),   "unique")="unique",  INDEX(K33:X33,0,MATCH($D33 &amp; "*",K33:X33,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E33),$I$2,INDEX(K33:X33,0,MATCH($E33 &amp; "*",K33:X33,0))),      $I$2     ),     $I$2:$I32,0    ),    "unique")="unique",   INDEX(K33:X33,0,MATCH($E33 &amp; "*",K33:X33,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F33),$I$2,INDEX(K33:X33,0,MATCH($F33 &amp; "*",K33:X33,0))),       $I$2      ),      $I$2:$I32,0     ),     "unique")="unique",    INDEX(K33:X33,0,MATCH($F33 &amp; "*",K33:X33,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G33),$I$2,INDEX(K33:X33,0,MATCH($G33 &amp; "*",K33:X33,0))),        $I$2       ),       $I$2:$I32,0      ),      "unique")="unique",     INDEX(K33:X33,0,MATCH($G33 &amp; "*",K33:X33,0)),     "nc"    )   )  ) )</f>
@@ -4591,8 +4407,8 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="H34" s="1"/>
       <c r="I34" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D34),$I$2,INDEX(K34:X34,0,MATCH($D34 &amp; "*",K34:X34,0))),     $I$2    ),    $I$2:$I33,0   ),   "unique")="unique",  INDEX(K34:X34,0,MATCH($D34 &amp; "*",K34:X34,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E34),$I$2,INDEX(K34:X34,0,MATCH($E34 &amp; "*",K34:X34,0))),      $I$2     ),     $I$2:$I33,0    ),    "unique")="unique",   INDEX(K34:X34,0,MATCH($E34 &amp; "*",K34:X34,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F34),$I$2,INDEX(K34:X34,0,MATCH($F34 &amp; "*",K34:X34,0))),       $I$2      ),      $I$2:$I33,0     ),     "unique")="unique",    INDEX(K34:X34,0,MATCH($F34 &amp; "*",K34:X34,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G34),$I$2,INDEX(K34:X34,0,MATCH($G34 &amp; "*",K34:X34,0))),        $I$2       ),       $I$2:$I33,0      ),      "unique")="unique",     INDEX(K34:X34,0,MATCH($G34 &amp; "*",K34:X34,0)),     "nc"    )   )  ) )</f>
@@ -4661,8 +4477,8 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="H35" s="12"/>
       <c r="I35" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D35),$I$2,INDEX(K35:X35,0,MATCH($D35 &amp; "*",K35:X35,0))),     $I$2    ),    $I$2:$I34,0   ),   "unique")="unique",  INDEX(K35:X35,0,MATCH($D35 &amp; "*",K35:X35,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E35),$I$2,INDEX(K35:X35,0,MATCH($E35 &amp; "*",K35:X35,0))),      $I$2     ),     $I$2:$I34,0    ),    "unique")="unique",   INDEX(K35:X35,0,MATCH($E35 &amp; "*",K35:X35,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F35),$I$2,INDEX(K35:X35,0,MATCH($F35 &amp; "*",K35:X35,0))),       $I$2      ),      $I$2:$I34,0     ),     "unique")="unique",    INDEX(K35:X35,0,MATCH($F35 &amp; "*",K35:X35,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G35),$I$2,INDEX(K35:X35,0,MATCH($G35 &amp; "*",K35:X35,0))),        $I$2       ),       $I$2:$I34,0      ),      "unique")="unique",     INDEX(K35:X35,0,MATCH($G35 &amp; "*",K35:X35,0)),     "nc"    )   )  ) )</f>
@@ -4731,8 +4547,8 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
       <c r="H36" s="12"/>
       <c r="I36" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D36),$I$2,INDEX(K36:X36,0,MATCH($D36 &amp; "*",K36:X36,0))),     $I$2    ),    $I$2:$I35,0   ),   "unique")="unique",  INDEX(K36:X36,0,MATCH($D36 &amp; "*",K36:X36,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E36),$I$2,INDEX(K36:X36,0,MATCH($E36 &amp; "*",K36:X36,0))),      $I$2     ),     $I$2:$I35,0    ),    "unique")="unique",   INDEX(K36:X36,0,MATCH($E36 &amp; "*",K36:X36,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F36),$I$2,INDEX(K36:X36,0,MATCH($F36 &amp; "*",K36:X36,0))),       $I$2      ),      $I$2:$I35,0     ),     "unique")="unique",    INDEX(K36:X36,0,MATCH($F36 &amp; "*",K36:X36,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G36),$I$2,INDEX(K36:X36,0,MATCH($G36 &amp; "*",K36:X36,0))),        $I$2       ),       $I$2:$I35,0      ),      "unique")="unique",     INDEX(K36:X36,0,MATCH($G36 &amp; "*",K36:X36,0)),     "nc"    )   )  ) )</f>
@@ -4801,8 +4617,8 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
       <c r="H37" s="12"/>
       <c r="I37" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D37),$I$2,INDEX(K37:X37,0,MATCH($D37 &amp; "*",K37:X37,0))),     $I$2    ),    $I$2:$I36,0   ),   "unique")="unique",  INDEX(K37:X37,0,MATCH($D37 &amp; "*",K37:X37,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E37),$I$2,INDEX(K37:X37,0,MATCH($E37 &amp; "*",K37:X37,0))),      $I$2     ),     $I$2:$I36,0    ),    "unique")="unique",   INDEX(K37:X37,0,MATCH($E37 &amp; "*",K37:X37,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F37),$I$2,INDEX(K37:X37,0,MATCH($F37 &amp; "*",K37:X37,0))),       $I$2      ),      $I$2:$I36,0     ),     "unique")="unique",    INDEX(K37:X37,0,MATCH($F37 &amp; "*",K37:X37,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G37),$I$2,INDEX(K37:X37,0,MATCH($G37 &amp; "*",K37:X37,0))),        $I$2       ),       $I$2:$I36,0      ),      "unique")="unique",     INDEX(K37:X37,0,MATCH($G37 &amp; "*",K37:X37,0)),     "nc"    )   )  ) )</f>
@@ -4871,8 +4687,8 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="I38" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D38),$I$2,INDEX(K38:X38,0,MATCH($D38 &amp; "*",K38:X38,0))),     $I$2    ),    $I$2:$I37,0   ),   "unique")="unique",  INDEX(K38:X38,0,MATCH($D38 &amp; "*",K38:X38,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E38),$I$2,INDEX(K38:X38,0,MATCH($E38 &amp; "*",K38:X38,0))),      $I$2     ),     $I$2:$I37,0    ),    "unique")="unique",   INDEX(K38:X38,0,MATCH($E38 &amp; "*",K38:X38,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F38),$I$2,INDEX(K38:X38,0,MATCH($F38 &amp; "*",K38:X38,0))),       $I$2      ),      $I$2:$I37,0     ),     "unique")="unique",    INDEX(K38:X38,0,MATCH($F38 &amp; "*",K38:X38,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G38),$I$2,INDEX(K38:X38,0,MATCH($G38 &amp; "*",K38:X38,0))),        $I$2       ),       $I$2:$I37,0      ),      "unique")="unique",     INDEX(K38:X38,0,MATCH($G38 &amp; "*",K38:X38,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -4940,8 +4756,8 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
       <c r="I39" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D39),$I$2,INDEX(K39:X39,0,MATCH($D39 &amp; "*",K39:X39,0))),     $I$2    ),    $I$2:$I38,0   ),   "unique")="unique",  INDEX(K39:X39,0,MATCH($D39 &amp; "*",K39:X39,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E39),$I$2,INDEX(K39:X39,0,MATCH($E39 &amp; "*",K39:X39,0))),      $I$2     ),     $I$2:$I38,0    ),    "unique")="unique",   INDEX(K39:X39,0,MATCH($E39 &amp; "*",K39:X39,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F39),$I$2,INDEX(K39:X39,0,MATCH($F39 &amp; "*",K39:X39,0))),       $I$2      ),      $I$2:$I38,0     ),     "unique")="unique",    INDEX(K39:X39,0,MATCH($F39 &amp; "*",K39:X39,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G39),$I$2,INDEX(K39:X39,0,MATCH($G39 &amp; "*",K39:X39,0))),        $I$2       ),       $I$2:$I38,0      ),      "unique")="unique",     INDEX(K39:X39,0,MATCH($G39 &amp; "*",K39:X39,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5009,8 +4825,8 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="I40" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D40),$I$2,INDEX(K40:X40,0,MATCH($D40 &amp; "*",K40:X40,0))),     $I$2    ),    $I$2:$I39,0   ),   "unique")="unique",  INDEX(K40:X40,0,MATCH($D40 &amp; "*",K40:X40,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E40),$I$2,INDEX(K40:X40,0,MATCH($E40 &amp; "*",K40:X40,0))),      $I$2     ),     $I$2:$I39,0    ),    "unique")="unique",   INDEX(K40:X40,0,MATCH($E40 &amp; "*",K40:X40,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F40),$I$2,INDEX(K40:X40,0,MATCH($F40 &amp; "*",K40:X40,0))),       $I$2      ),      $I$2:$I39,0     ),     "unique")="unique",    INDEX(K40:X40,0,MATCH($F40 &amp; "*",K40:X40,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G40),$I$2,INDEX(K40:X40,0,MATCH($G40 &amp; "*",K40:X40,0))),        $I$2       ),       $I$2:$I39,0      ),      "unique")="unique",     INDEX(K40:X40,0,MATCH($G40 &amp; "*",K40:X40,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5078,8 +4894,8 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="H41" s="12"/>
       <c r="I41" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D41),$I$2,INDEX(K41:X41,0,MATCH($D41 &amp; "*",K41:X41,0))),     $I$2    ),    $I$2:$I40,0   ),   "unique")="unique",  INDEX(K41:X41,0,MATCH($D41 &amp; "*",K41:X41,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E41),$I$2,INDEX(K41:X41,0,MATCH($E41 &amp; "*",K41:X41,0))),      $I$2     ),     $I$2:$I40,0    ),    "unique")="unique",   INDEX(K41:X41,0,MATCH($E41 &amp; "*",K41:X41,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F41),$I$2,INDEX(K41:X41,0,MATCH($F41 &amp; "*",K41:X41,0))),       $I$2      ),      $I$2:$I40,0     ),     "unique")="unique",    INDEX(K41:X41,0,MATCH($F41 &amp; "*",K41:X41,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G41),$I$2,INDEX(K41:X41,0,MATCH($G41 &amp; "*",K41:X41,0))),        $I$2       ),       $I$2:$I40,0      ),      "unique")="unique",     INDEX(K41:X41,0,MATCH($G41 &amp; "*",K41:X41,0)),     "nc"    )   )  ) )</f>
@@ -5148,8 +4964,8 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="H42" s="12"/>
       <c r="I42" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D42),$I$2,INDEX(K42:X42,0,MATCH($D42 &amp; "*",K42:X42,0))),     $I$2    ),    $I$2:$I41,0   ),   "unique")="unique",  INDEX(K42:X42,0,MATCH($D42 &amp; "*",K42:X42,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E42),$I$2,INDEX(K42:X42,0,MATCH($E42 &amp; "*",K42:X42,0))),      $I$2     ),     $I$2:$I41,0    ),    "unique")="unique",   INDEX(K42:X42,0,MATCH($E42 &amp; "*",K42:X42,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F42),$I$2,INDEX(K42:X42,0,MATCH($F42 &amp; "*",K42:X42,0))),       $I$2      ),      $I$2:$I41,0     ),     "unique")="unique",    INDEX(K42:X42,0,MATCH($F42 &amp; "*",K42:X42,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G42),$I$2,INDEX(K42:X42,0,MATCH($G42 &amp; "*",K42:X42,0))),        $I$2       ),       $I$2:$I41,0      ),      "unique")="unique",     INDEX(K42:X42,0,MATCH($G42 &amp; "*",K42:X42,0)),     "nc"    )   )  ) )</f>
@@ -5218,8 +5034,8 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="H43" s="12"/>
       <c r="I43" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D43),$I$2,INDEX(K43:X43,0,MATCH($D43 &amp; "*",K43:X43,0))),     $I$2    ),    $I$2:$I42,0   ),   "unique")="unique",  INDEX(K43:X43,0,MATCH($D43 &amp; "*",K43:X43,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E43),$I$2,INDEX(K43:X43,0,MATCH($E43 &amp; "*",K43:X43,0))),      $I$2     ),     $I$2:$I42,0    ),    "unique")="unique",   INDEX(K43:X43,0,MATCH($E43 &amp; "*",K43:X43,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F43),$I$2,INDEX(K43:X43,0,MATCH($F43 &amp; "*",K43:X43,0))),       $I$2      ),      $I$2:$I42,0     ),     "unique")="unique",    INDEX(K43:X43,0,MATCH($F43 &amp; "*",K43:X43,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G43),$I$2,INDEX(K43:X43,0,MATCH($G43 &amp; "*",K43:X43,0))),        $I$2       ),       $I$2:$I42,0      ),      "unique")="unique",     INDEX(K43:X43,0,MATCH($G43 &amp; "*",K43:X43,0)),     "nc"    )   )  ) )</f>
@@ -5288,8 +5104,8 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="I44" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D44),$I$2,INDEX(K44:X44,0,MATCH($D44 &amp; "*",K44:X44,0))),     $I$2    ),    $I$2:$I43,0   ),   "unique")="unique",  INDEX(K44:X44,0,MATCH($D44 &amp; "*",K44:X44,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E44),$I$2,INDEX(K44:X44,0,MATCH($E44 &amp; "*",K44:X44,0))),      $I$2     ),     $I$2:$I43,0    ),    "unique")="unique",   INDEX(K44:X44,0,MATCH($E44 &amp; "*",K44:X44,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F44),$I$2,INDEX(K44:X44,0,MATCH($F44 &amp; "*",K44:X44,0))),       $I$2      ),      $I$2:$I43,0     ),     "unique")="unique",    INDEX(K44:X44,0,MATCH($F44 &amp; "*",K44:X44,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G44),$I$2,INDEX(K44:X44,0,MATCH($G44 &amp; "*",K44:X44,0))),        $I$2       ),       $I$2:$I43,0      ),      "unique")="unique",     INDEX(K44:X44,0,MATCH($G44 &amp; "*",K44:X44,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5357,8 +5173,8 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="H45" s="1"/>
       <c r="I45" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D45),$I$2,INDEX(K45:X45,0,MATCH($D45 &amp; "*",K45:X45,0))),     $I$2    ),    $I$2:$I44,0   ),   "unique")="unique",  INDEX(K45:X45,0,MATCH($D45 &amp; "*",K45:X45,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E45),$I$2,INDEX(K45:X45,0,MATCH($E45 &amp; "*",K45:X45,0))),      $I$2     ),     $I$2:$I44,0    ),    "unique")="unique",   INDEX(K45:X45,0,MATCH($E45 &amp; "*",K45:X45,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F45),$I$2,INDEX(K45:X45,0,MATCH($F45 &amp; "*",K45:X45,0))),       $I$2      ),      $I$2:$I44,0     ),     "unique")="unique",    INDEX(K45:X45,0,MATCH($F45 &amp; "*",K45:X45,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G45),$I$2,INDEX(K45:X45,0,MATCH($G45 &amp; "*",K45:X45,0))),        $I$2       ),       $I$2:$I44,0      ),      "unique")="unique",     INDEX(K45:X45,0,MATCH($G45 &amp; "*",K45:X45,0)),     "nc"    )   )  ) )</f>
@@ -5427,8 +5243,8 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="H46" s="1"/>
       <c r="I46" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D46),$I$2,INDEX(K46:X46,0,MATCH($D46 &amp; "*",K46:X46,0))),     $I$2    ),    $I$2:$I45,0   ),   "unique")="unique",  INDEX(K46:X46,0,MATCH($D46 &amp; "*",K46:X46,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E46),$I$2,INDEX(K46:X46,0,MATCH($E46 &amp; "*",K46:X46,0))),      $I$2     ),     $I$2:$I45,0    ),    "unique")="unique",   INDEX(K46:X46,0,MATCH($E46 &amp; "*",K46:X46,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F46),$I$2,INDEX(K46:X46,0,MATCH($F46 &amp; "*",K46:X46,0))),       $I$2      ),      $I$2:$I45,0     ),     "unique")="unique",    INDEX(K46:X46,0,MATCH($F46 &amp; "*",K46:X46,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G46),$I$2,INDEX(K46:X46,0,MATCH($G46 &amp; "*",K46:X46,0))),        $I$2       ),       $I$2:$I45,0      ),      "unique")="unique",     INDEX(K46:X46,0,MATCH($G46 &amp; "*",K46:X46,0)),     "nc"    )   )  ) )</f>
@@ -5497,8 +5313,8 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="H47" s="1"/>
       <c r="I47" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D47),$I$2,INDEX(K47:X47,0,MATCH($D47 &amp; "*",K47:X47,0))),     $I$2    ),    $I$2:$I46,0   ),   "unique")="unique",  INDEX(K47:X47,0,MATCH($D47 &amp; "*",K47:X47,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E47),$I$2,INDEX(K47:X47,0,MATCH($E47 &amp; "*",K47:X47,0))),      $I$2     ),     $I$2:$I46,0    ),    "unique")="unique",   INDEX(K47:X47,0,MATCH($E47 &amp; "*",K47:X47,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F47),$I$2,INDEX(K47:X47,0,MATCH($F47 &amp; "*",K47:X47,0))),       $I$2      ),      $I$2:$I46,0     ),     "unique")="unique",    INDEX(K47:X47,0,MATCH($F47 &amp; "*",K47:X47,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G47),$I$2,INDEX(K47:X47,0,MATCH($G47 &amp; "*",K47:X47,0))),        $I$2       ),       $I$2:$I46,0      ),      "unique")="unique",     INDEX(K47:X47,0,MATCH($G47 &amp; "*",K47:X47,0)),     "nc"    )   )  ) )</f>
@@ -5567,8 +5383,8 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
       <c r="H48" s="12"/>
       <c r="I48" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D48),$I$2,INDEX(K48:X48,0,MATCH($D48 &amp; "*",K48:X48,0))),     $I$2    ),    $I$2:$I47,0   ),   "unique")="unique",  INDEX(K48:X48,0,MATCH($D48 &amp; "*",K48:X48,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E48),$I$2,INDEX(K48:X48,0,MATCH($E48 &amp; "*",K48:X48,0))),      $I$2     ),     $I$2:$I47,0    ),    "unique")="unique",   INDEX(K48:X48,0,MATCH($E48 &amp; "*",K48:X48,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F48),$I$2,INDEX(K48:X48,0,MATCH($F48 &amp; "*",K48:X48,0))),       $I$2      ),      $I$2:$I47,0     ),     "unique")="unique",    INDEX(K48:X48,0,MATCH($F48 &amp; "*",K48:X48,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G48),$I$2,INDEX(K48:X48,0,MATCH($G48 &amp; "*",K48:X48,0))),        $I$2       ),       $I$2:$I47,0      ),      "unique")="unique",     INDEX(K48:X48,0,MATCH($G48 &amp; "*",K48:X48,0)),     "nc"    )   )  ) )</f>
@@ -5637,8 +5453,8 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="H49" s="12"/>
       <c r="I49" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D49),$I$2,INDEX(K49:X49,0,MATCH($D49 &amp; "*",K49:X49,0))),     $I$2    ),    $I$2:$I48,0   ),   "unique")="unique",  INDEX(K49:X49,0,MATCH($D49 &amp; "*",K49:X49,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E49),$I$2,INDEX(K49:X49,0,MATCH($E49 &amp; "*",K49:X49,0))),      $I$2     ),     $I$2:$I48,0    ),    "unique")="unique",   INDEX(K49:X49,0,MATCH($E49 &amp; "*",K49:X49,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F49),$I$2,INDEX(K49:X49,0,MATCH($F49 &amp; "*",K49:X49,0))),       $I$2      ),      $I$2:$I48,0     ),     "unique")="unique",    INDEX(K49:X49,0,MATCH($F49 &amp; "*",K49:X49,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G49),$I$2,INDEX(K49:X49,0,MATCH($G49 &amp; "*",K49:X49,0))),        $I$2       ),       $I$2:$I48,0      ),      "unique")="unique",     INDEX(K49:X49,0,MATCH($G49 &amp; "*",K49:X49,0)),     "nc"    )   )  ) )</f>
@@ -5707,8 +5523,8 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
       <c r="I50" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D50),$I$2,INDEX(K50:X50,0,MATCH($D50 &amp; "*",K50:X50,0))),     $I$2    ),    $I$2:$I49,0   ),   "unique")="unique",  INDEX(K50:X50,0,MATCH($D50 &amp; "*",K50:X50,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E50),$I$2,INDEX(K50:X50,0,MATCH($E50 &amp; "*",K50:X50,0))),      $I$2     ),     $I$2:$I49,0    ),    "unique")="unique",   INDEX(K50:X50,0,MATCH($E50 &amp; "*",K50:X50,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F50),$I$2,INDEX(K50:X50,0,MATCH($F50 &amp; "*",K50:X50,0))),       $I$2      ),      $I$2:$I49,0     ),     "unique")="unique",    INDEX(K50:X50,0,MATCH($F50 &amp; "*",K50:X50,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G50),$I$2,INDEX(K50:X50,0,MATCH($G50 &amp; "*",K50:X50,0))),        $I$2       ),       $I$2:$I49,0      ),      "unique")="unique",     INDEX(K50:X50,0,MATCH($G50 &amp; "*",K50:X50,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5776,8 +5592,8 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="I51" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D51),$I$2,INDEX(K51:X51,0,MATCH($D51 &amp; "*",K51:X51,0))),     $I$2    ),    $I$2:$I50,0   ),   "unique")="unique",  INDEX(K51:X51,0,MATCH($D51 &amp; "*",K51:X51,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E51),$I$2,INDEX(K51:X51,0,MATCH($E51 &amp; "*",K51:X51,0))),      $I$2     ),     $I$2:$I50,0    ),    "unique")="unique",   INDEX(K51:X51,0,MATCH($E51 &amp; "*",K51:X51,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F51),$I$2,INDEX(K51:X51,0,MATCH($F51 &amp; "*",K51:X51,0))),       $I$2      ),      $I$2:$I50,0     ),     "unique")="unique",    INDEX(K51:X51,0,MATCH($F51 &amp; "*",K51:X51,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G51),$I$2,INDEX(K51:X51,0,MATCH($G51 &amp; "*",K51:X51,0))),        $I$2       ),       $I$2:$I50,0      ),      "unique")="unique",     INDEX(K51:X51,0,MATCH($G51 &amp; "*",K51:X51,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5845,8 +5661,8 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
       <c r="I52" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D52),$I$2,INDEX(K52:X52,0,MATCH($D52 &amp; "*",K52:X52,0))),     $I$2    ),    $I$2:$I51,0   ),   "unique")="unique",  INDEX(K52:X52,0,MATCH($D52 &amp; "*",K52:X52,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E52),$I$2,INDEX(K52:X52,0,MATCH($E52 &amp; "*",K52:X52,0))),      $I$2     ),     $I$2:$I51,0    ),    "unique")="unique",   INDEX(K52:X52,0,MATCH($E52 &amp; "*",K52:X52,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F52),$I$2,INDEX(K52:X52,0,MATCH($F52 &amp; "*",K52:X52,0))),       $I$2      ),      $I$2:$I51,0     ),     "unique")="unique",    INDEX(K52:X52,0,MATCH($F52 &amp; "*",K52:X52,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G52),$I$2,INDEX(K52:X52,0,MATCH($G52 &amp; "*",K52:X52,0))),        $I$2       ),       $I$2:$I51,0      ),      "unique")="unique",     INDEX(K52:X52,0,MATCH($G52 &amp; "*",K52:X52,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5914,8 +5730,8 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
       <c r="I53" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D53),$I$2,INDEX(K53:X53,0,MATCH($D53 &amp; "*",K53:X53,0))),     $I$2    ),    $I$2:$I52,0   ),   "unique")="unique",  INDEX(K53:X53,0,MATCH($D53 &amp; "*",K53:X53,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E53),$I$2,INDEX(K53:X53,0,MATCH($E53 &amp; "*",K53:X53,0))),      $I$2     ),     $I$2:$I52,0    ),    "unique")="unique",   INDEX(K53:X53,0,MATCH($E53 &amp; "*",K53:X53,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F53),$I$2,INDEX(K53:X53,0,MATCH($F53 &amp; "*",K53:X53,0))),       $I$2      ),      $I$2:$I52,0     ),     "unique")="unique",    INDEX(K53:X53,0,MATCH($F53 &amp; "*",K53:X53,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G53),$I$2,INDEX(K53:X53,0,MATCH($G53 &amp; "*",K53:X53,0))),        $I$2       ),       $I$2:$I52,0      ),      "unique")="unique",     INDEX(K53:X53,0,MATCH($G53 &amp; "*",K53:X53,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -5983,8 +5799,8 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
       <c r="H54" s="1"/>
       <c r="I54" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D54),$I$2,INDEX(K54:X54,0,MATCH($D54 &amp; "*",K54:X54,0))),     $I$2    ),    $I$2:$I53,0   ),   "unique")="unique",  INDEX(K54:X54,0,MATCH($D54 &amp; "*",K54:X54,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E54),$I$2,INDEX(K54:X54,0,MATCH($E54 &amp; "*",K54:X54,0))),      $I$2     ),     $I$2:$I53,0    ),    "unique")="unique",   INDEX(K54:X54,0,MATCH($E54 &amp; "*",K54:X54,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F54),$I$2,INDEX(K54:X54,0,MATCH($F54 &amp; "*",K54:X54,0))),       $I$2      ),      $I$2:$I53,0     ),     "unique")="unique",    INDEX(K54:X54,0,MATCH($F54 &amp; "*",K54:X54,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G54),$I$2,INDEX(K54:X54,0,MATCH($G54 &amp; "*",K54:X54,0))),        $I$2       ),       $I$2:$I53,0      ),      "unique")="unique",     INDEX(K54:X54,0,MATCH($G54 &amp; "*",K54:X54,0)),     "nc"    )   )  ) )</f>
@@ -6053,8 +5869,8 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="H55" s="1"/>
       <c r="I55" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D55),$I$2,INDEX(K55:X55,0,MATCH($D55 &amp; "*",K55:X55,0))),     $I$2    ),    $I$2:$I54,0   ),   "unique")="unique",  INDEX(K55:X55,0,MATCH($D55 &amp; "*",K55:X55,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E55),$I$2,INDEX(K55:X55,0,MATCH($E55 &amp; "*",K55:X55,0))),      $I$2     ),     $I$2:$I54,0    ),    "unique")="unique",   INDEX(K55:X55,0,MATCH($E55 &amp; "*",K55:X55,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F55),$I$2,INDEX(K55:X55,0,MATCH($F55 &amp; "*",K55:X55,0))),       $I$2      ),      $I$2:$I54,0     ),     "unique")="unique",    INDEX(K55:X55,0,MATCH($F55 &amp; "*",K55:X55,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G55),$I$2,INDEX(K55:X55,0,MATCH($G55 &amp; "*",K55:X55,0))),        $I$2       ),       $I$2:$I54,0      ),      "unique")="unique",     INDEX(K55:X55,0,MATCH($G55 &amp; "*",K55:X55,0)),     "nc"    )   )  ) )</f>
@@ -6123,8 +5939,8 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
       <c r="I56" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D56),$I$2,INDEX(K56:X56,0,MATCH($D56 &amp; "*",K56:X56,0))),     $I$2    ),    $I$2:$I55,0   ),   "unique")="unique",  INDEX(K56:X56,0,MATCH($D56 &amp; "*",K56:X56,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E56),$I$2,INDEX(K56:X56,0,MATCH($E56 &amp; "*",K56:X56,0))),      $I$2     ),     $I$2:$I55,0    ),    "unique")="unique",   INDEX(K56:X56,0,MATCH($E56 &amp; "*",K56:X56,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F56),$I$2,INDEX(K56:X56,0,MATCH($F56 &amp; "*",K56:X56,0))),       $I$2      ),      $I$2:$I55,0     ),     "unique")="unique",    INDEX(K56:X56,0,MATCH($F56 &amp; "*",K56:X56,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G56),$I$2,INDEX(K56:X56,0,MATCH($G56 &amp; "*",K56:X56,0))),        $I$2       ),       $I$2:$I55,0      ),      "unique")="unique",     INDEX(K56:X56,0,MATCH($G56 &amp; "*",K56:X56,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6192,8 +6008,8 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
       <c r="I57" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D57),$I$2,INDEX(K57:X57,0,MATCH($D57 &amp; "*",K57:X57,0))),     $I$2    ),    $I$2:$I56,0   ),   "unique")="unique",  INDEX(K57:X57,0,MATCH($D57 &amp; "*",K57:X57,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E57),$I$2,INDEX(K57:X57,0,MATCH($E57 &amp; "*",K57:X57,0))),      $I$2     ),     $I$2:$I56,0    ),    "unique")="unique",   INDEX(K57:X57,0,MATCH($E57 &amp; "*",K57:X57,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F57),$I$2,INDEX(K57:X57,0,MATCH($F57 &amp; "*",K57:X57,0))),       $I$2      ),      $I$2:$I56,0     ),     "unique")="unique",    INDEX(K57:X57,0,MATCH($F57 &amp; "*",K57:X57,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G57),$I$2,INDEX(K57:X57,0,MATCH($G57 &amp; "*",K57:X57,0))),        $I$2       ),       $I$2:$I56,0      ),      "unique")="unique",     INDEX(K57:X57,0,MATCH($G57 &amp; "*",K57:X57,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6261,8 +6077,8 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
       <c r="I58" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D58),$I$2,INDEX(K58:X58,0,MATCH($D58 &amp; "*",K58:X58,0))),     $I$2    ),    $I$2:$I57,0   ),   "unique")="unique",  INDEX(K58:X58,0,MATCH($D58 &amp; "*",K58:X58,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E58),$I$2,INDEX(K58:X58,0,MATCH($E58 &amp; "*",K58:X58,0))),      $I$2     ),     $I$2:$I57,0    ),    "unique")="unique",   INDEX(K58:X58,0,MATCH($E58 &amp; "*",K58:X58,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F58),$I$2,INDEX(K58:X58,0,MATCH($F58 &amp; "*",K58:X58,0))),       $I$2      ),      $I$2:$I57,0     ),     "unique")="unique",    INDEX(K58:X58,0,MATCH($F58 &amp; "*",K58:X58,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G58),$I$2,INDEX(K58:X58,0,MATCH($G58 &amp; "*",K58:X58,0))),        $I$2       ),       $I$2:$I57,0      ),      "unique")="unique",     INDEX(K58:X58,0,MATCH($G58 &amp; "*",K58:X58,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6330,8 +6146,8 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="I59" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D59),$I$2,INDEX(K59:X59,0,MATCH($D59 &amp; "*",K59:X59,0))),     $I$2    ),    $I$2:$I58,0   ),   "unique")="unique",  INDEX(K59:X59,0,MATCH($D59 &amp; "*",K59:X59,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E59),$I$2,INDEX(K59:X59,0,MATCH($E59 &amp; "*",K59:X59,0))),      $I$2     ),     $I$2:$I58,0    ),    "unique")="unique",   INDEX(K59:X59,0,MATCH($E59 &amp; "*",K59:X59,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F59),$I$2,INDEX(K59:X59,0,MATCH($F59 &amp; "*",K59:X59,0))),       $I$2      ),      $I$2:$I58,0     ),     "unique")="unique",    INDEX(K59:X59,0,MATCH($F59 &amp; "*",K59:X59,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G59),$I$2,INDEX(K59:X59,0,MATCH($G59 &amp; "*",K59:X59,0))),        $I$2       ),       $I$2:$I58,0      ),      "unique")="unique",     INDEX(K59:X59,0,MATCH($G59 &amp; "*",K59:X59,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6399,7 +6215,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
-      <c r="E60" s="13"/>
+      <c r="E60" s="4"/>
       <c r="I60" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D60),$I$2,INDEX(K60:X60,0,MATCH($D60 &amp; "*",K60:X60,0))),     $I$2    ),    $I$2:$I59,0   ),   "unique")="unique",  INDEX(K60:X60,0,MATCH($D60 &amp; "*",K60:X60,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E60),$I$2,INDEX(K60:X60,0,MATCH($E60 &amp; "*",K60:X60,0))),      $I$2     ),     $I$2:$I59,0    ),    "unique")="unique",   INDEX(K60:X60,0,MATCH($E60 &amp; "*",K60:X60,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F60),$I$2,INDEX(K60:X60,0,MATCH($F60 &amp; "*",K60:X60,0))),       $I$2      ),      $I$2:$I59,0     ),     "unique")="unique",    INDEX(K60:X60,0,MATCH($F60 &amp; "*",K60:X60,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G60),$I$2,INDEX(K60:X60,0,MATCH($G60 &amp; "*",K60:X60,0))),        $I$2       ),       $I$2:$I59,0      ),      "unique")="unique",     INDEX(K60:X60,0,MATCH($G60 &amp; "*",K60:X60,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6467,7 +6283,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11"/>
-      <c r="E61" s="13"/>
+      <c r="E61" s="4"/>
       <c r="I61" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D61),$I$2,INDEX(K61:X61,0,MATCH($D61 &amp; "*",K61:X61,0))),     $I$2    ),    $I$2:$I60,0   ),   "unique")="unique",  INDEX(K61:X61,0,MATCH($D61 &amp; "*",K61:X61,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E61),$I$2,INDEX(K61:X61,0,MATCH($E61 &amp; "*",K61:X61,0))),      $I$2     ),     $I$2:$I60,0    ),    "unique")="unique",   INDEX(K61:X61,0,MATCH($E61 &amp; "*",K61:X61,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F61),$I$2,INDEX(K61:X61,0,MATCH($F61 &amp; "*",K61:X61,0))),       $I$2      ),      $I$2:$I60,0     ),     "unique")="unique",    INDEX(K61:X61,0,MATCH($F61 &amp; "*",K61:X61,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G61),$I$2,INDEX(K61:X61,0,MATCH($G61 &amp; "*",K61:X61,0))),        $I$2       ),       $I$2:$I60,0      ),      "unique")="unique",     INDEX(K61:X61,0,MATCH($G61 &amp; "*",K61:X61,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6535,7 +6351,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
-      <c r="E62" s="13"/>
+      <c r="E62" s="4"/>
       <c r="I62" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D62),$I$2,INDEX(K62:X62,0,MATCH($D62 &amp; "*",K62:X62,0))),     $I$2    ),    $I$2:$I61,0   ),   "unique")="unique",  INDEX(K62:X62,0,MATCH($D62 &amp; "*",K62:X62,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E62),$I$2,INDEX(K62:X62,0,MATCH($E62 &amp; "*",K62:X62,0))),      $I$2     ),     $I$2:$I61,0    ),    "unique")="unique",   INDEX(K62:X62,0,MATCH($E62 &amp; "*",K62:X62,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F62),$I$2,INDEX(K62:X62,0,MATCH($F62 &amp; "*",K62:X62,0))),       $I$2      ),      $I$2:$I61,0     ),     "unique")="unique",    INDEX(K62:X62,0,MATCH($F62 &amp; "*",K62:X62,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G62),$I$2,INDEX(K62:X62,0,MATCH($G62 &amp; "*",K62:X62,0))),        $I$2       ),       $I$2:$I61,0      ),      "unique")="unique",     INDEX(K62:X62,0,MATCH($G62 &amp; "*",K62:X62,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6583,7 +6399,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11"/>
-      <c r="E63" s="13"/>
+      <c r="E63" s="4"/>
       <c r="I63" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D63),$I$2,INDEX(K63:X63,0,MATCH($D63 &amp; "*",K63:X63,0))),     $I$2    ),    $I$2:$I62,0   ),   "unique")="unique",  INDEX(K63:X63,0,MATCH($D63 &amp; "*",K63:X63,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E63),$I$2,INDEX(K63:X63,0,MATCH($E63 &amp; "*",K63:X63,0))),      $I$2     ),     $I$2:$I62,0    ),    "unique")="unique",   INDEX(K63:X63,0,MATCH($E63 &amp; "*",K63:X63,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F63),$I$2,INDEX(K63:X63,0,MATCH($F63 &amp; "*",K63:X63,0))),       $I$2      ),      $I$2:$I62,0     ),     "unique")="unique",    INDEX(K63:X63,0,MATCH($F63 &amp; "*",K63:X63,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G63),$I$2,INDEX(K63:X63,0,MATCH($G63 &amp; "*",K63:X63,0))),        $I$2       ),       $I$2:$I62,0      ),      "unique")="unique",     INDEX(K63:X63,0,MATCH($G63 &amp; "*",K63:X63,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6631,8 +6447,8 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="H64" s="12"/>
       <c r="I64" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D64),$I$2,INDEX(K64:X64,0,MATCH($D64 &amp; "*",K64:X64,0))),     $I$2    ),    $I$2:$I63,0   ),   "unique")="unique",  INDEX(K64:X64,0,MATCH($D64 &amp; "*",K64:X64,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E64),$I$2,INDEX(K64:X64,0,MATCH($E64 &amp; "*",K64:X64,0))),      $I$2     ),     $I$2:$I63,0    ),    "unique")="unique",   INDEX(K64:X64,0,MATCH($E64 &amp; "*",K64:X64,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F64),$I$2,INDEX(K64:X64,0,MATCH($F64 &amp; "*",K64:X64,0))),       $I$2      ),      $I$2:$I63,0     ),     "unique")="unique",    INDEX(K64:X64,0,MATCH($F64 &amp; "*",K64:X64,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G64),$I$2,INDEX(K64:X64,0,MATCH($G64 &amp; "*",K64:X64,0))),        $I$2       ),       $I$2:$I63,0      ),      "unique")="unique",     INDEX(K64:X64,0,MATCH($G64 &amp; "*",K64:X64,0)),     "nc"    )   )  ) )</f>
@@ -6681,8 +6497,8 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
       <c r="I65" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D65),$I$2,INDEX(K65:X65,0,MATCH($D65 &amp; "*",K65:X65,0))),     $I$2    ),    $I$2:$I64,0   ),   "unique")="unique",  INDEX(K65:X65,0,MATCH($D65 &amp; "*",K65:X65,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E65),$I$2,INDEX(K65:X65,0,MATCH($E65 &amp; "*",K65:X65,0))),      $I$2     ),     $I$2:$I64,0    ),    "unique")="unique",   INDEX(K65:X65,0,MATCH($E65 &amp; "*",K65:X65,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F65),$I$2,INDEX(K65:X65,0,MATCH($F65 &amp; "*",K65:X65,0))),       $I$2      ),      $I$2:$I64,0     ),     "unique")="unique",    INDEX(K65:X65,0,MATCH($F65 &amp; "*",K65:X65,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G65),$I$2,INDEX(K65:X65,0,MATCH($G65 &amp; "*",K65:X65,0))),        $I$2       ),       $I$2:$I64,0      ),      "unique")="unique",     INDEX(K65:X65,0,MATCH($G65 &amp; "*",K65:X65,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6730,8 +6546,8 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
       <c r="I66" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D66),$I$2,INDEX(K66:X66,0,MATCH($D66 &amp; "*",K66:X66,0))),     $I$2    ),    $I$2:$I65,0   ),   "unique")="unique",  INDEX(K66:X66,0,MATCH($D66 &amp; "*",K66:X66,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E66),$I$2,INDEX(K66:X66,0,MATCH($E66 &amp; "*",K66:X66,0))),      $I$2     ),     $I$2:$I65,0    ),    "unique")="unique",   INDEX(K66:X66,0,MATCH($E66 &amp; "*",K66:X66,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F66),$I$2,INDEX(K66:X66,0,MATCH($F66 &amp; "*",K66:X66,0))),       $I$2      ),      $I$2:$I65,0     ),     "unique")="unique",    INDEX(K66:X66,0,MATCH($F66 &amp; "*",K66:X66,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G66),$I$2,INDEX(K66:X66,0,MATCH($G66 &amp; "*",K66:X66,0))),        $I$2       ),       $I$2:$I65,0      ),      "unique")="unique",     INDEX(K66:X66,0,MATCH($G66 &amp; "*",K66:X66,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6779,8 +6595,8 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
       <c r="I67" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D67),$I$2,INDEX(K67:X67,0,MATCH($D67 &amp; "*",K67:X67,0))),     $I$2    ),    $I$2:$I66,0   ),   "unique")="unique",  INDEX(K67:X67,0,MATCH($D67 &amp; "*",K67:X67,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E67),$I$2,INDEX(K67:X67,0,MATCH($E67 &amp; "*",K67:X67,0))),      $I$2     ),     $I$2:$I66,0    ),    "unique")="unique",   INDEX(K67:X67,0,MATCH($E67 &amp; "*",K67:X67,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F67),$I$2,INDEX(K67:X67,0,MATCH($F67 &amp; "*",K67:X67,0))),       $I$2      ),      $I$2:$I66,0     ),     "unique")="unique",    INDEX(K67:X67,0,MATCH($F67 &amp; "*",K67:X67,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G67),$I$2,INDEX(K67:X67,0,MATCH($G67 &amp; "*",K67:X67,0))),        $I$2       ),       $I$2:$I66,0      ),      "unique")="unique",     INDEX(K67:X67,0,MATCH($G67 &amp; "*",K67:X67,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6828,8 +6644,8 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
       <c r="H68" s="12"/>
       <c r="I68" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D68),$I$2,INDEX(K68:X68,0,MATCH($D68 &amp; "*",K68:X68,0))),     $I$2    ),    $I$2:$I67,0   ),   "unique")="unique",  INDEX(K68:X68,0,MATCH($D68 &amp; "*",K68:X68,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E68),$I$2,INDEX(K68:X68,0,MATCH($E68 &amp; "*",K68:X68,0))),      $I$2     ),     $I$2:$I67,0    ),    "unique")="unique",   INDEX(K68:X68,0,MATCH($E68 &amp; "*",K68:X68,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F68),$I$2,INDEX(K68:X68,0,MATCH($F68 &amp; "*",K68:X68,0))),       $I$2      ),      $I$2:$I67,0     ),     "unique")="unique",    INDEX(K68:X68,0,MATCH($F68 &amp; "*",K68:X68,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G68),$I$2,INDEX(K68:X68,0,MATCH($G68 &amp; "*",K68:X68,0))),        $I$2       ),       $I$2:$I67,0      ),      "unique")="unique",     INDEX(K68:X68,0,MATCH($G68 &amp; "*",K68:X68,0)),     "nc"    )   )  ) )</f>
@@ -6878,8 +6694,8 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
       <c r="I69" s="5" t="str">
         <f aca="false">IF(  IFERROR(   MATCH(    IFERROR(     IF(ISBLANK($D69),$I$2,INDEX(K69:X69,0,MATCH($D69 &amp; "*",K69:X69,0))),     $I$2    ),    $I$2:$I68,0   ),   "unique")="unique",  INDEX(K69:X69,0,MATCH($D69 &amp; "*",K69:X69,0)),  IF(   IFERROR(    MATCH(     IFERROR(      IF(ISBLANK($E69),$I$2,INDEX(K69:X69,0,MATCH($E69 &amp; "*",K69:X69,0))),      $I$2     ),     $I$2:$I68,0    ),    "unique")="unique",   INDEX(K69:X69,0,MATCH($E69 &amp; "*",K69:X69,0)),   IF(    IFERROR(     MATCH(      IFERROR(       IF(ISBLANK($F69),$I$2,INDEX(K69:X69,0,MATCH($F69 &amp; "*",K69:X69,0))),       $I$2      ),      $I$2:$I68,0     ),     "unique")="unique",    INDEX(K69:X69,0,MATCH($F69 &amp; "*",K69:X69,0)),    IF(     IFERROR(      MATCH(       IFERROR(        IF(ISBLANK($G69),$I$2,INDEX(K69:X69,0,MATCH($G69 &amp; "*",K69:X69,0))),        $I$2       ),       $I$2:$I68,0      ),      "unique")="unique",     INDEX(K69:X69,0,MATCH($G69 &amp; "*",K69:X69,0)),     "nc"    )   )  ) )</f>
         <v>nc</v>
@@ -6932,9 +6748,9 @@
       <c r="B70" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="H70" s="21" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="H70" s="20" t="s">
         <v>95</v>
       </c>
       <c r="I70" s="5" t="str">
@@ -6989,9 +6805,9 @@
       <c r="B71" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="H71" s="21" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="H71" s="20" t="s">
         <v>96</v>
       </c>
       <c r="I71" s="5" t="str">
@@ -7046,9 +6862,9 @@
       <c r="B72" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="H72" s="21" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="H72" s="20" t="s">
         <v>97</v>
       </c>
       <c r="I72" s="5" t="str">
@@ -7103,9 +6919,9 @@
       <c r="B73" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="H73" s="21" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="H73" s="20" t="s">
         <v>98</v>
       </c>
       <c r="I73" s="5" t="str">
@@ -7160,8 +6976,8 @@
       <c r="B74" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="H74" s="21" t="s">
+      <c r="E74" s="4"/>
+      <c r="H74" s="20" t="s">
         <v>99</v>
       </c>
       <c r="I74" s="5" t="str">
@@ -7216,8 +7032,8 @@
       <c r="B75" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="H75" s="21" t="s">
+      <c r="E75" s="4"/>
+      <c r="H75" s="20" t="s">
         <v>100</v>
       </c>
       <c r="I75" s="5" t="str">
@@ -7272,8 +7088,8 @@
       <c r="B76" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="H76" s="21" t="s">
+      <c r="E76" s="4"/>
+      <c r="H76" s="20" t="s">
         <v>101</v>
       </c>
       <c r="I76" s="5" t="str">
@@ -7328,8 +7144,8 @@
       <c r="B77" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="H77" s="21" t="s">
+      <c r="E77" s="4"/>
+      <c r="H77" s="20" t="s">
         <v>102</v>
       </c>
       <c r="I77" s="5" t="str">
@@ -7384,9 +7200,9 @@
       <c r="B78" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="H78" s="21" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="H78" s="20" t="s">
         <v>103</v>
       </c>
       <c r="I78" s="5" t="str">
@@ -7441,8 +7257,8 @@
       <c r="B79" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D79" s="13"/>
-      <c r="H79" s="21" t="s">
+      <c r="D79" s="4"/>
+      <c r="H79" s="20" t="s">
         <v>104</v>
       </c>
       <c r="I79" s="5" t="str">
@@ -7497,8 +7313,8 @@
       <c r="B80" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="H80" s="21" t="s">
+      <c r="D80" s="4"/>
+      <c r="H80" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I80" s="5" t="str">
@@ -7553,9 +7369,9 @@
       <c r="B81" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="H81" s="21" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="H81" s="20" t="s">
         <v>106</v>
       </c>
       <c r="I81" s="5" t="str">
@@ -7610,9 +7426,9 @@
       <c r="B82" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="H82" s="21" t="s">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="H82" s="20" t="s">
         <v>107</v>
       </c>
       <c r="I82" s="5" t="str">
@@ -7667,8 +7483,8 @@
       <c r="B83" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D83" s="13"/>
-      <c r="H83" s="21" t="s">
+      <c r="D83" s="4"/>
+      <c r="H83" s="20" t="s">
         <v>108</v>
       </c>
       <c r="I83" s="5" t="str">
@@ -7723,8 +7539,8 @@
       <c r="B84" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="13"/>
-      <c r="H84" s="21" t="s">
+      <c r="D84" s="4"/>
+      <c r="H84" s="20" t="s">
         <v>109</v>
       </c>
       <c r="I84" s="5" t="str">
@@ -7779,8 +7595,8 @@
       <c r="B85" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="H85" s="21" t="s">
+      <c r="D85" s="4"/>
+      <c r="H85" s="20" t="s">
         <v>110</v>
       </c>
       <c r="I85" s="5" t="str">
@@ -7835,8 +7651,8 @@
       <c r="B86" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="H86" s="21" t="s">
+      <c r="D86" s="4"/>
+      <c r="H86" s="20" t="s">
         <v>111</v>
       </c>
       <c r="I86" s="5" t="str">
@@ -7891,8 +7707,8 @@
       <c r="B87" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="H87" s="21" t="s">
+      <c r="D87" s="4"/>
+      <c r="H87" s="20" t="s">
         <v>112</v>
       </c>
       <c r="I87" s="5" t="str">
@@ -7947,8 +7763,8 @@
       <c r="B88" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="H88" s="21" t="s">
+      <c r="D88" s="4"/>
+      <c r="H88" s="20" t="s">
         <v>113</v>
       </c>
       <c r="I88" s="5" t="str">
@@ -8003,8 +7819,8 @@
       <c r="B89" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="H89" s="21" t="s">
+      <c r="D89" s="4"/>
+      <c r="H89" s="20" t="s">
         <v>114</v>
       </c>
       <c r="I89" s="5" t="str">
@@ -8059,8 +7875,8 @@
       <c r="B90" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="H90" s="21" t="s">
+      <c r="D90" s="4"/>
+      <c r="H90" s="20" t="s">
         <v>115</v>
       </c>
       <c r="I90" s="5" t="str">
@@ -8115,8 +7931,8 @@
       <c r="B91" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D91" s="13"/>
-      <c r="H91" s="21" t="s">
+      <c r="D91" s="4"/>
+      <c r="H91" s="20" t="s">
         <v>116</v>
       </c>
       <c r="I91" s="5" t="str">
@@ -8171,8 +7987,8 @@
       <c r="B92" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="13"/>
-      <c r="H92" s="21" t="s">
+      <c r="D92" s="4"/>
+      <c r="H92" s="20" t="s">
         <v>117</v>
       </c>
       <c r="I92" s="5" t="str">
@@ -8227,8 +8043,8 @@
       <c r="B93" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="H93" s="21" t="s">
+      <c r="D93" s="4"/>
+      <c r="H93" s="20" t="s">
         <v>118</v>
       </c>
       <c r="I93" s="5" t="str">
@@ -8283,8 +8099,8 @@
       <c r="B94" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="H94" s="21" t="s">
+      <c r="D94" s="4"/>
+      <c r="H94" s="20" t="s">
         <v>119</v>
       </c>
       <c r="I94" s="5" t="str">
@@ -8339,7 +8155,7 @@
       <c r="B95" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H95" s="21" t="s">
+      <c r="H95" s="20" t="s">
         <v>120</v>
       </c>
       <c r="I95" s="5" t="str">
@@ -8394,7 +8210,7 @@
       <c r="B96" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H96" s="21" t="s">
+      <c r="H96" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I96" s="5" t="str">
@@ -8449,7 +8265,7 @@
       <c r="B97" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="H97" s="20" t="s">
         <v>122</v>
       </c>
       <c r="I97" s="5" t="str">
@@ -8504,7 +8320,7 @@
       <c r="B98" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="H98" s="21" t="s">
+      <c r="H98" s="20" t="s">
         <v>123</v>
       </c>
       <c r="I98" s="5" t="str">
@@ -8559,7 +8375,7 @@
       <c r="B99" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="H99" s="21" t="s">
+      <c r="H99" s="20" t="s">
         <v>124</v>
       </c>
       <c r="I99" s="5" t="str">
@@ -14653,13 +14469,13 @@
   <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="P48" activeCellId="1" sqref="19:19 P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.67"/>
@@ -14668,8 +14484,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="11" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="23" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="22" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.83"/>
   </cols>
   <sheetData>
@@ -14730,7 +14547,7 @@
       <c r="A2" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -14742,13 +14559,13 @@
       <c r="E2" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -14766,10 +14583,10 @@
       <c r="M2" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="23" t="str">
+      <c r="Q2" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B2,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -14778,7 +14595,7 @@
       <c r="A3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -14787,31 +14604,31 @@
       <c r="D3" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="E3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>147</v>
       </c>
       <c r="K3" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="23" t="str">
+      <c r="Q3" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B3,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -14820,7 +14637,7 @@
       <c r="A4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -14829,19 +14646,19 @@
       <c r="D4" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="E4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -14856,10 +14673,10 @@
       <c r="M4" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="23" t="str">
+      <c r="Q4" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B4,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -14868,7 +14685,7 @@
       <c r="A5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -14877,31 +14694,31 @@
       <c r="D5" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="E5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>147</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="23" t="str">
+      <c r="Q5" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B5,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -14910,7 +14727,7 @@
       <c r="A6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -14919,22 +14736,22 @@
       <c r="D6" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="E6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6" s="25" t="s">
+      <c r="H6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>147</v>
       </c>
       <c r="K6" s="0" t="s">
@@ -14952,10 +14769,10 @@
       <c r="O6" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="23" t="str">
+      <c r="Q6" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B6,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -14964,7 +14781,7 @@
       <c r="A7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -14973,31 +14790,31 @@
       <c r="D7" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="E7" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>147</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q7" s="23" t="str">
+      <c r="Q7" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B7,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15006,7 +14823,7 @@
       <c r="A8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -15015,31 +14832,31 @@
       <c r="D8" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="I8" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>137</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="23" t="str">
+      <c r="Q8" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B8,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15048,7 +14865,7 @@
       <c r="A9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -15057,31 +14874,31 @@
       <c r="D9" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>137</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="23" t="str">
+      <c r="Q9" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B9,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15090,7 +14907,7 @@
       <c r="A10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -15099,28 +14916,28 @@
       <c r="D10" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="F10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="23" t="str">
+      <c r="Q10" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B10,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15129,7 +14946,7 @@
       <c r="A11" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -15138,28 +14955,28 @@
       <c r="D11" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q11" s="23" t="str">
+      <c r="Q11" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B11,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15168,7 +14985,7 @@
       <c r="A12" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -15177,28 +14994,28 @@
       <c r="D12" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="F12" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="P12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q12" s="23" t="str">
+      <c r="Q12" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B12,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15207,7 +15024,7 @@
       <c r="A13" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>191</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -15216,28 +15033,28 @@
       <c r="D13" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="F13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="26" t="s">
+      <c r="J13" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="23" t="str">
+      <c r="Q13" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B13,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
@@ -15246,7 +15063,7 @@
       <c r="A14" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>197</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -15255,28 +15072,28 @@
       <c r="D14" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="F14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P14" s="26" t="s">
+      <c r="J14" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="Q14" s="23" t="str">
+      <c r="Q14" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B14,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
@@ -15285,7 +15102,7 @@
       <c r="A15" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -15294,28 +15111,28 @@
       <c r="D15" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="E15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="Q15" s="23" t="str">
+      <c r="Q15" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B15,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15324,7 +15141,7 @@
       <c r="A16" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -15333,31 +15150,31 @@
       <c r="D16" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="E16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="23" t="str">
+      <c r="Q16" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B16,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15366,7 +15183,7 @@
       <c r="A17" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>204</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -15375,28 +15192,28 @@
       <c r="D17" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="E17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="Q17" s="23" t="str">
+      <c r="Q17" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B17,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
@@ -15405,7 +15222,7 @@
       <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -15414,31 +15231,31 @@
       <c r="D18" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="K18" s="26" t="s">
+      <c r="H18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="Q18" s="23" t="str">
+      <c r="Q18" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B18,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
@@ -15447,7 +15264,7 @@
       <c r="A19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>212</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -15456,31 +15273,31 @@
       <c r="D19" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="P19" s="26" t="s">
+      <c r="P19" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="Q19" s="23" t="str">
+      <c r="Q19" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B19,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
@@ -15489,7 +15306,7 @@
       <c r="A20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -15498,31 +15315,31 @@
       <c r="D20" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="E20" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="P20" s="26" t="s">
+      <c r="P20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="Q20" s="23" t="str">
+      <c r="Q20" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B20,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15531,7 +15348,7 @@
       <c r="A21" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -15540,7 +15357,7 @@
       <c r="D21" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>137</v>
       </c>
       <c r="F21" s="0" t="s">
@@ -15549,19 +15366,19 @@
       <c r="G21" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="P21" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="23" t="str">
+      <c r="Q21" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B21,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15570,7 +15387,7 @@
       <c r="A22" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -15579,28 +15396,28 @@
       <c r="D22" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>189</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="23" t="str">
+      <c r="Q22" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B22,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15609,8 +15426,8 @@
       <c r="A23" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B23" s="24" t="s">
-        <v>218</v>
+      <c r="B23" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>175</v>
@@ -15618,37 +15435,37 @@
       <c r="D23" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q23" s="23" t="str">
+      <c r="K23" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q23" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B23,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
-        <v>available</v>
+        <v>in use</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -15657,28 +15474,28 @@
       <c r="D24" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P24" s="26" t="s">
+      <c r="P24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="23" t="str">
+      <c r="Q24" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B24,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15687,7 +15504,7 @@
       <c r="A25" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -15696,28 +15513,28 @@
       <c r="D25" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="P25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="23" t="str">
+      <c r="Q25" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B25,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15726,7 +15543,7 @@
       <c r="A26" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -15735,28 +15552,28 @@
       <c r="D26" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="H26" s="24" t="s">
         <v>185</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P26" s="26" t="s">
+      <c r="P26" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" s="23" t="str">
+      <c r="Q26" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B26,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -15765,8 +15582,8 @@
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>83</v>
+      <c r="B27" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>202</v>
@@ -15774,34 +15591,34 @@
       <c r="D27" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="24" t="s">
         <v>181</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P27" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q27" s="23" t="str">
+      <c r="P27" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q27" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B27,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -15810,34 +15627,34 @@
       <c r="D28" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="24" t="s">
         <v>135</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="K28" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="P28" s="26" t="s">
+      <c r="K28" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="P28" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="Q28" s="23" t="str">
+      <c r="Q28" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B28,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="23" t="s">
         <v>96</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -15846,7 +15663,7 @@
       <c r="D29" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>137</v>
       </c>
       <c r="F29" s="0" t="s">
@@ -15855,25 +15672,25 @@
       <c r="G29" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="24" t="s">
         <v>137</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="P29" s="26" t="s">
+      <c r="K29" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="Q29" s="23" t="str">
+      <c r="Q29" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B29,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -15882,34 +15699,34 @@
       <c r="D30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K30" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="P30" s="26" t="s">
+      <c r="K30" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="Q30" s="23" t="str">
+      <c r="Q30" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B30,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -15918,34 +15735,34 @@
       <c r="D31" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H31" s="24" t="s">
         <v>145</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P31" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="Q31" s="23" t="str">
+      <c r="Q31" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B31,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -15954,34 +15771,34 @@
       <c r="D32" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>137</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="24" t="s">
         <v>151</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P32" s="26" t="s">
+      <c r="P32" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="Q32" s="23" t="str">
+      <c r="Q32" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B32,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -15990,37 +15807,37 @@
       <c r="D33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>214</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="H33" s="24" t="s">
         <v>157</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K33" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="P33" s="26" t="s">
+      <c r="K33" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="P33" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="Q33" s="23" t="str">
+      <c r="Q33" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B33,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -16029,34 +15846,34 @@
       <c r="D34" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P34" s="26" t="s">
+      <c r="E34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P34" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="Q34" s="23" t="str">
+      <c r="Q34" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B34,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -16065,34 +15882,34 @@
       <c r="D35" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P35" s="26" t="s">
+      <c r="F35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q35" s="23" t="str">
+      <c r="Q35" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B35,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>103</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -16101,34 +15918,34 @@
       <c r="D36" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P36" s="26" t="s">
+      <c r="F36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="Q36" s="23" t="str">
+      <c r="Q36" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B36,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -16137,34 +15954,34 @@
       <c r="D37" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P37" s="26" t="s">
+      <c r="E37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P37" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="Q37" s="23" t="str">
+      <c r="Q37" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B37,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="23" t="s">
         <v>105</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -16173,38 +15990,38 @@
       <c r="D38" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="P38" s="26" t="s">
+      <c r="E38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="P38" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="Q38" s="23" t="str">
+      <c r="Q38" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B38,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -16216,31 +16033,31 @@
       <c r="E39" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="26" t="s">
+      <c r="F39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L39" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="L39" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="P39" s="26" t="s">
+      <c r="P39" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="Q39" s="23" t="str">
+      <c r="Q39" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B39,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
@@ -16249,8 +16066,8 @@
       <c r="A40" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B40" s="24" t="s">
-        <v>231</v>
+      <c r="B40" s="23" t="s">
+        <v>230</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>137</v>
@@ -16261,31 +16078,31 @@
       <c r="E40" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P40" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q40" s="23" t="str">
+      <c r="F40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q40" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B40,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -16297,31 +16114,31 @@
       <c r="E41" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P41" s="26" t="s">
+      <c r="F41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P41" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="Q41" s="23" t="str">
+      <c r="Q41" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B41,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -16333,67 +16150,67 @@
       <c r="E42" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="F42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P42" s="26" t="s">
+      <c r="F42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P42" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="Q42" s="23" t="str">
+      <c r="Q42" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B42,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>200</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="F43" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P43" s="26" t="s">
+      <c r="F43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P43" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="Q43" s="23" t="str">
+      <c r="Q43" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B43,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -16405,31 +16222,31 @@
       <c r="E44" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P44" s="26" t="s">
+      <c r="F44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P44" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="Q44" s="23" t="str">
+      <c r="Q44" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B44,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -16441,31 +16258,31 @@
       <c r="E45" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P45" s="26" t="s">
+      <c r="F45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="Q45" s="23" t="str">
+      <c r="Q45" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B45,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -16477,31 +16294,31 @@
       <c r="E46" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P46" s="26" t="s">
+      <c r="F46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P46" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="Q46" s="23" t="str">
+      <c r="Q46" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B46,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="24" t="s">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -16513,35 +16330,35 @@
       <c r="E47" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F47" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q47" s="23" t="str">
+      <c r="F47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q47" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B47,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>85</v>
+      <c r="B48" s="23" t="s">
+        <v>233</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>137</v>
@@ -16552,70 +16369,70 @@
       <c r="E48" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P48" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q48" s="23" t="str">
+      <c r="F48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q48" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B48,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
-        <v>in use</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>available</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>233</v>
+      <c r="B49" s="23" t="s">
+        <v>235</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E49" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P49" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q49" s="23" t="str">
+      <c r="F49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q49" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B49,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="23" t="s">
         <v>114</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -16627,31 +16444,31 @@
       <c r="E50" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P50" s="26" t="s">
+      <c r="F50" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J50" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P50" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q50" s="23" t="str">
+      <c r="Q50" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B50,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="24" t="s">
+      <c r="B51" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -16663,67 +16480,67 @@
       <c r="E51" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="F51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P51" s="26" t="s">
+      <c r="F51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P51" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="Q51" s="23" t="str">
+      <c r="Q51" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B51,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>206</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E52" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P52" s="26" t="s">
+      <c r="F52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P52" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="Q52" s="23" t="str">
+      <c r="Q52" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B52,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -16735,35 +16552,35 @@
       <c r="E53" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="F53" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P53" s="26" t="s">
+      <c r="F53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P53" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="Q53" s="23" t="str">
+      <c r="Q53" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B53,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>160</v>
@@ -16771,31 +16588,31 @@
       <c r="E54" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I54" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P54" s="26" t="s">
+      <c r="F54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="Q54" s="23" t="str">
+      <c r="Q54" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B54,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -16807,31 +16624,31 @@
       <c r="E55" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P55" s="26" t="s">
+      <c r="F55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P55" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="Q55" s="23" t="str">
+      <c r="Q55" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B55,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="23" t="s">
         <v>120</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -16843,31 +16660,31 @@
       <c r="E56" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P56" s="26" t="s">
+      <c r="F56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P56" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="Q56" s="23" t="str">
+      <c r="Q56" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B56,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>121</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -16879,31 +16696,31 @@
       <c r="E57" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P57" s="26" t="s">
+      <c r="F57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J57" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P57" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="Q57" s="23" t="str">
+      <c r="Q57" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH(#REF!,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="23" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -16915,31 +16732,31 @@
       <c r="E58" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="F58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P58" s="26" t="s">
+      <c r="F58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P58" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="Q58" s="23" t="str">
+      <c r="Q58" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B57,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="23" t="s">
         <v>123</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -16951,35 +16768,35 @@
       <c r="E59" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="F59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P59" s="26" t="s">
+      <c r="F59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P59" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="Q59" s="23" t="str">
+      <c r="Q59" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B58,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>124</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>137</v>
@@ -16987,368 +16804,368 @@
       <c r="E60" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="P60" s="26" t="s">
+      <c r="F60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P60" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="Q60" s="23" t="str">
+      <c r="Q60" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B59,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>in use</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="24"/>
-      <c r="Q61" s="23" t="str">
+      <c r="B61" s="23"/>
+      <c r="Q61" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B61,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="24"/>
-      <c r="Q62" s="23" t="str">
+      <c r="B62" s="23"/>
+      <c r="Q62" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B62,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="24"/>
-      <c r="Q63" s="23" t="str">
+      <c r="B63" s="23"/>
+      <c r="Q63" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B63,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="24"/>
-      <c r="Q64" s="23" t="str">
+      <c r="B64" s="23"/>
+      <c r="Q64" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B64,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="24"/>
-      <c r="Q65" s="23" t="str">
+      <c r="B65" s="23"/>
+      <c r="Q65" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B65,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="24"/>
-      <c r="Q66" s="23" t="str">
+      <c r="B66" s="23"/>
+      <c r="Q66" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B66,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="24"/>
-      <c r="Q67" s="23" t="str">
+      <c r="B67" s="23"/>
+      <c r="Q67" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B67,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="24"/>
-      <c r="Q68" s="23" t="str">
+      <c r="B68" s="23"/>
+      <c r="Q68" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B68,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="24"/>
-      <c r="Q69" s="23" t="str">
+      <c r="B69" s="23"/>
+      <c r="Q69" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B69,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="24"/>
-      <c r="Q70" s="23" t="str">
+      <c r="B70" s="23"/>
+      <c r="Q70" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B70,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="24"/>
-      <c r="Q71" s="23" t="str">
+      <c r="B71" s="23"/>
+      <c r="Q71" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B71,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="24"/>
-      <c r="Q72" s="23" t="str">
+      <c r="B72" s="23"/>
+      <c r="Q72" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B72,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="24"/>
-      <c r="Q73" s="23" t="str">
+      <c r="B73" s="23"/>
+      <c r="Q73" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B73,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="24"/>
-      <c r="Q74" s="23" t="str">
+      <c r="B74" s="23"/>
+      <c r="Q74" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B74,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="24"/>
-      <c r="Q75" s="23" t="str">
+      <c r="B75" s="23"/>
+      <c r="Q75" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B75,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="24"/>
-      <c r="Q76" s="23" t="str">
+      <c r="B76" s="23"/>
+      <c r="Q76" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B76,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="24"/>
-      <c r="Q77" s="23" t="str">
+      <c r="B77" s="23"/>
+      <c r="Q77" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B77,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="24"/>
-      <c r="Q78" s="23" t="str">
+      <c r="B78" s="23"/>
+      <c r="Q78" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B78,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="24"/>
-      <c r="Q79" s="23" t="str">
+      <c r="B79" s="23"/>
+      <c r="Q79" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B79,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="24"/>
-      <c r="Q80" s="23" t="str">
+      <c r="B80" s="23"/>
+      <c r="Q80" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B80,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="24"/>
-      <c r="Q81" s="23" t="str">
+      <c r="B81" s="23"/>
+      <c r="Q81" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B81,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="24"/>
-      <c r="Q82" s="23" t="str">
+      <c r="B82" s="23"/>
+      <c r="Q82" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B82,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="24"/>
-      <c r="Q83" s="23" t="str">
+      <c r="B83" s="23"/>
+      <c r="Q83" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B83,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="24"/>
-      <c r="Q84" s="23" t="str">
+      <c r="B84" s="23"/>
+      <c r="Q84" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B84,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="24"/>
-      <c r="Q85" s="23" t="str">
+      <c r="B85" s="23"/>
+      <c r="Q85" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B85,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="24"/>
-      <c r="Q86" s="23" t="str">
+      <c r="B86" s="23"/>
+      <c r="Q86" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B86,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="24"/>
-      <c r="Q87" s="23" t="str">
+      <c r="B87" s="23"/>
+      <c r="Q87" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B87,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="24"/>
-      <c r="Q88" s="23" t="str">
+      <c r="B88" s="23"/>
+      <c r="Q88" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B88,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="24"/>
-      <c r="Q89" s="23" t="str">
+      <c r="B89" s="23"/>
+      <c r="Q89" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B89,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="24"/>
-      <c r="Q90" s="23" t="str">
+      <c r="B90" s="23"/>
+      <c r="Q90" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B90,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="24"/>
-      <c r="Q91" s="23" t="str">
+      <c r="B91" s="23"/>
+      <c r="Q91" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B91,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="24"/>
-      <c r="Q92" s="23" t="str">
+      <c r="B92" s="23"/>
+      <c r="Q92" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B92,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="24"/>
-      <c r="Q93" s="23" t="str">
+      <c r="B93" s="23"/>
+      <c r="Q93" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B93,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="24"/>
-      <c r="Q94" s="23" t="str">
+      <c r="B94" s="23"/>
+      <c r="Q94" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B94,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="24"/>
-      <c r="Q95" s="23" t="str">
+      <c r="B95" s="23"/>
+      <c r="Q95" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B95,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="24"/>
-      <c r="Q96" s="23" t="str">
+      <c r="B96" s="23"/>
+      <c r="Q96" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B96,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="24"/>
-      <c r="Q97" s="23" t="str">
+      <c r="B97" s="23"/>
+      <c r="Q97" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B97,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="24"/>
-      <c r="Q98" s="23" t="str">
+      <c r="B98" s="23"/>
+      <c r="Q98" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B98,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="24"/>
-      <c r="Q99" s="23" t="str">
+      <c r="B99" s="23"/>
+      <c r="Q99" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B99,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="24"/>
-      <c r="Q100" s="23" t="str">
+      <c r="B100" s="23"/>
+      <c r="Q100" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B100,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="24"/>
-      <c r="Q101" s="23" t="str">
+      <c r="B101" s="23"/>
+      <c r="Q101" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B101,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="24"/>
-      <c r="Q102" s="23" t="str">
+      <c r="B102" s="23"/>
+      <c r="Q102" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B102,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="24"/>
-      <c r="Q103" s="23" t="str">
+      <c r="B103" s="23"/>
+      <c r="Q103" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B103,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="24"/>
-      <c r="Q104" s="23" t="str">
+      <c r="B104" s="23"/>
+      <c r="Q104" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B104,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="24"/>
-      <c r="Q105" s="23" t="str">
+      <c r="B105" s="23"/>
+      <c r="Q105" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B105,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="24"/>
-      <c r="Q106" s="23" t="str">
+      <c r="B106" s="23"/>
+      <c r="Q106" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B106,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="24"/>
-      <c r="Q107" s="23" t="str">
+      <c r="B107" s="23"/>
+      <c r="Q107" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B107,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="24"/>
-      <c r="Q108" s="23" t="str">
+      <c r="B108" s="23"/>
+      <c r="Q108" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B108,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="24"/>
-      <c r="Q109" s="23" t="str">
+      <c r="B109" s="23"/>
+      <c r="Q109" s="22" t="str">
         <f aca="false">IF(IFERROR(MATCH($B109,pin_mapping!$H:$H,0), "available")="available","available","in use")</f>
         <v>available</v>
       </c>
